--- a/va_facility_data_2025-02-20/Norfolk VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Norfolk%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Norfolk VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Norfolk%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R838b6382d27d49c689d8a004993e9595"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9fa9a17865eb40aaa93812c2d5f32331"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ff04709f74b4fa9a0e1fa19be97bdb9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rca164855dfad499ca4ee5203ef02f8c4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8d6ab24c79174610b027edbfa10739de"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23cbd4aeb0904f1490767d34c4f0c135"/>
   </x:sheets>
 </x:workbook>
 </file>
